--- a/XLSX/April.xlsx
+++ b/XLSX/April.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="timings" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="timings" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -101,11 +101,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mmm\ d&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="d&quot;. &quot;mmm&quot;. &quot;yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -173,24 +172,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -206,6 +209,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -213,363 +322,368 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="10:10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="16.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="18.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="17.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="17.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
+      <c r="A1" s="3" t="n">
         <v>43834</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" s="4" t="n">
         <v>0.213888888888889</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="4" t="n">
         <v>0.265972222222222</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="4" t="n">
         <v>0.284027777777778</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="F1" s="4" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="4" t="n">
         <v>0.711805555555556</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="4" t="n">
         <v>0.784722222222222</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="4" t="n">
         <v>0.838194444444445</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43865</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>0.213194444444444</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>0.265277777777778</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>0.283333333333333</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>0.711805555555556</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="4" t="n">
         <v>0.784722222222222</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="4" t="n">
         <v>0.838194444444445</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43894</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>0.2125</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>0.264583333333333</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>0.282638888888889</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>0.711805555555556</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>0.785416666666667</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <v>0.838888888888889</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43925</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>0.211805555555556</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>0.263888888888889</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>0.281944444444444</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>0.527083333333333</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>0.711805555555556</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>0.785416666666667</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <v>0.838888888888889</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43955</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>0.211111111111111</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.263194444444444</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>0.28125</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>0.711805555555556</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="4" t="n">
         <v>0.785416666666667</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="4" t="n">
         <v>0.839583333333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43986</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>0.210416666666667</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>0.2625</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>0.280555555555556</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>0.7125</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="4" t="n">
         <v>0.786111111111111</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="4" t="n">
         <v>0.839583333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44016</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>0.209027777777778</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>0.261805555555556</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>0.279861111111111</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>0.526388888888889</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>0.7125</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="4" t="n">
         <v>0.786111111111111</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <v>0.840277777777778</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44047</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>0.261111111111111</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>0.279166666666667</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>0.7125</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="4" t="n">
         <v>0.786805555555556</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="4" t="n">
         <v>0.840277777777778</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44078</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>0.207638888888889</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>0.260416666666667</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="4" t="n">
         <v>0.278472222222222</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>0.7125</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="4" t="n">
         <v>0.786805555555556</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <v>0.840972222222222</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44108</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>0.206944444444444</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>0.259722222222222</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="4" t="n">
         <v>0.277777777777778</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>0.7125</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="4" t="n">
         <v>0.7875</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="4" t="n">
         <v>0.841666666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44139</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>0.20625</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>0.259027777777778</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>0.277083333333333</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>0.525694444444445</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>0.7125</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="4" t="n">
         <v>0.7875</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <v>0.841666666666667</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44169</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>0.205555555555556</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>0.258333333333333</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>0.276388888888889</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>0.525</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>0.7125</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="4" t="n">
         <v>0.7875</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <v>0.842361111111111</v>
       </c>
     </row>
@@ -577,521 +691,521 @@
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>0.204861111111111</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>0.257638888888889</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>0.275694444444444</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>0.525</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <v>0.7125</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="4" t="n">
         <v>0.788194444444445</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <v>0.842361111111111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>0.204166666666667</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>0.256944444444445</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="4" t="n">
         <v>0.275</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="4" t="n">
         <v>0.525</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="4" t="n">
         <v>0.7125</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="4" t="n">
         <v>0.788194444444445</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="4" t="n">
         <v>0.843055555555556</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>0.203472222222222</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>0.25625</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>0.274305555555556</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="4" t="n">
         <v>0.525</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="4" t="n">
         <v>0.713194444444445</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="4" t="n">
         <v>0.788888888888889</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="4" t="n">
         <v>0.84375</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>0.202777777777778</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>0.255555555555556</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>0.273611111111111</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="4" t="n">
         <v>0.713194444444445</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="4" t="n">
         <v>0.788888888888889</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="4" t="n">
         <v>0.84375</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>0.201388888888889</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>0.254861111111111</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="4" t="n">
         <v>0.272916666666667</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="4" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="4" t="n">
         <v>0.713194444444445</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="4" t="n">
         <v>0.789583333333333</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="4" t="n">
         <v>0.844444444444444</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>0.200694444444444</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>0.254861111111111</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="4" t="n">
         <v>0.272916666666667</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="4" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="4" t="n">
         <v>0.713194444444445</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="4" t="n">
         <v>0.789583333333333</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="4" t="n">
         <v>0.844444444444444</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <v>0.254166666666667</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="4" t="n">
         <v>0.272222222222222</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="4" t="n">
         <v>0.524305555555556</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="4" t="n">
         <v>0.713194444444445</v>
       </c>
-      <c r="H19" s="3" t="n">
+      <c r="H19" s="4" t="n">
         <v>0.790277777777778</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="4" t="n">
         <v>0.845138888888889</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>0.199305555555556</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="4" t="n">
         <v>0.253472222222222</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="4" t="n">
         <v>0.271527777777778</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="4" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="4" t="n">
         <v>0.713194444444445</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="4" t="n">
         <v>0.790277777777778</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="4" t="n">
         <v>0.845833333333333</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <v>0.198611111111111</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <v>0.252777777777778</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="4" t="n">
         <v>0.270833333333333</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="4" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="4" t="n">
         <v>0.713194444444445</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="4" t="n">
         <v>0.790972222222222</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="4" t="n">
         <v>0.845833333333333</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <v>0.252083333333333</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="4" t="n">
         <v>0.270138888888889</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="4" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="4" t="n">
         <v>0.713194444444445</v>
       </c>
-      <c r="H22" s="3" t="n">
+      <c r="H22" s="4" t="n">
         <v>0.790972222222222</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="4" t="n">
         <v>0.846527777777778</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>0.197222222222222</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="4" t="n">
         <v>0.251388888888889</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="4" t="n">
         <v>0.269444444444444</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="4" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="4" t="n">
         <v>0.713194444444445</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="4" t="n">
         <v>0.790972222222222</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="4" t="n">
         <v>0.847222222222222</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="4" t="n">
         <v>0.196527777777778</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="4" t="n">
         <v>0.250694444444444</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="4" t="n">
         <v>0.269444444444444</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="4" t="n">
         <v>0.523611111111111</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="4" t="n">
         <v>0.713194444444445</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="4" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="4" t="n">
         <v>0.847222222222222</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4" t="n">
         <v>0.195833333333333</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="4" t="n">
         <v>0.250694444444444</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="4" t="n">
         <v>0.26875</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="4" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="4" t="n">
         <v>0.713888888888889</v>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" s="4" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="4" t="n">
         <v>0.847916666666667</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <v>0.195138888888889</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="4" t="n">
         <v>0.268055555555556</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="4" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="4" t="n">
         <v>0.713888888888889</v>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="4" t="n">
         <v>0.792361111111111</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="4" t="n">
         <v>0.848611111111111</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <v>0.194444444444444</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="4" t="n">
         <v>0.249305555555556</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="4" t="n">
         <v>0.267361111111111</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="4" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="4" t="n">
         <v>0.713888888888889</v>
       </c>
-      <c r="H27" s="3" t="n">
+      <c r="H27" s="4" t="n">
         <v>0.792361111111111</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="4" t="n">
         <v>0.848611111111111</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4" t="n">
         <v>0.19375</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="4" t="n">
         <v>0.248611111111111</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="4" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="4" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G28" s="4" t="n">
         <v>0.713888888888889</v>
       </c>
-      <c r="H28" s="3" t="n">
+      <c r="H28" s="4" t="n">
         <v>0.793055555555556</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="4" t="n">
         <v>0.849305555555556</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>0.193055555555556</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="4" t="n">
         <v>0.247916666666667</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="4" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="4" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="4" t="n">
         <v>0.713888888888889</v>
       </c>
-      <c r="H29" s="3" t="n">
+      <c r="H29" s="4" t="n">
         <v>0.793055555555556</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="4" t="n">
         <v>0.85</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4" t="n">
         <v>0.192361111111111</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="4" t="n">
         <v>0.247916666666667</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="4" t="n">
         <v>0.265972222222222</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="4" t="n">
         <v>0.522916666666667</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="4" t="n">
         <v>0.713888888888889</v>
       </c>
-      <c r="H30" s="3" t="n">
+      <c r="H30" s="4" t="n">
         <v>0.79375</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="4" t="n">
         <v>0.85</v>
       </c>
     </row>
